--- a/medicine/Sexualité et sexologie/Triolisme/Triolisme.xlsx
+++ b/medicine/Sexualité et sexologie/Triolisme/Triolisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triolisme ou plan à trois (parfois appelé « amour à trois » ou même encore « trip à trois » (au Québec)) est une pratique particulière de la sexualité de groupe impliquant trois partenaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triolisme est un rapport sexuel entre trois personnes, quel que soit leur genre et leur orientation sexuelle. Il existe une grande variété de positions sexuelles pour trois partenaires.
 	Exemples de configurations possibles
@@ -546,7 +560,9 @@
           <t>Représentation dans les arts plastiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Deux hommes et une femme (Pompei, Ier siècle).
